--- a/doc/02_外部設計/02_機能一覧_国士無双.xlsx
+++ b/doc/02_外部設計/02_機能一覧_国士無双.xlsx
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1528,14 +1528,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1544,7 +1536,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="cc5076aeb172260c949e9d1bac4e3f09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3594676fbaf2822bd434e70b875bd3fa" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -1694,14 +1686,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E30528F-7F37-4569-A78B-589356C882D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1E7E01-6926-446F-888B-85C2B654243A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1E7E01-6926-446F-888B-85C2B654243A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D93F6B3F-5410-4FBA-9F02-A9AC75651DF7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D93F6B3F-5410-4FBA-9F02-A9AC75651DF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E30528F-7F37-4569-A78B-589356C882D4}"/>
 </file>
--- a/doc/02_外部設計/02_機能一覧_国士無双.xlsx
+++ b/doc/02_外部設計/02_機能一覧_国士無双.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/miyashita-ryusuke-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B5\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F1910D7-22CE-4215-9AD9-10DF1E49D8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405ACA43-397E-4F03-ABA3-F9FFE7FCB179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,10 +621,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,22 +933,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
@@ -963,7 +963,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -978,26 +978,26 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" ht="21">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="27">
+    <row r="9" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="27">
+    <row r="11" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -1263,7 +1263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="27">
+    <row r="21" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="27">
+    <row r="23" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -1431,7 +1431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>23</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>24</v>
       </c>
@@ -1537,6 +1537,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D3AB27C864B3094F9396A6D72E012482" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="cc5076aeb172260c949e9d1bac4e3f09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87cf0ee8-fe20-4b5a-8adf-0a4439756175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3594676fbaf2822bd434e70b875bd3fa" ns3:_="">
     <xsd:import namespace="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
@@ -1686,22 +1694,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87cf0ee8-fe20-4b5a-8adf-0a4439756175" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1E7E01-6926-446F-888B-85C2B654243A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B1E7E01-6926-446F-888B-85C2B654243A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D93F6B3F-5410-4FBA-9F02-A9AC75651DF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E30528F-7F37-4569-A78B-589356C882D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E30528F-7F37-4569-A78B-589356C882D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D93F6B3F-5410-4FBA-9F02-A9AC75651DF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>